--- a/book-mgr-be/upload/1fc27bc4-8788-4336-99f2-b8a684a5c77e.xlsx
+++ b/book-mgr-be/upload/1fc27bc4-8788-4336-99f2-b8a684a5c77e.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianyedong/Desktop/projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pai\Desktop\book-mgr\book-mgr-be\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C1C69-0B4D-7F4A-A206-8BB0A95E3D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="3480" windowWidth="28240" windowHeight="17440" xr2:uid="{B4178831-7BC4-B949-B37D-6583D4058E0A}"/>
+    <workbookView xWindow="7644" yWindow="3480" windowWidth="28236" windowHeight="17436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,20 +424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB6F5A-54C6-864F-89F6-AABCCE399828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -478,7 +477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
